--- a/biology/Zoologie/Anthoathecata/Anthoathecata.xlsx
+++ b/biology/Zoologie/Anthoathecata/Anthoathecata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anthoathecata constituent un ordre d'hydrozoaires.
 Les hydrozoaires sont des membres de l'embranchement des cnidaires (les cnidaires sont des animaux relativement simples, spécifiques du milieu aquatique ; on y retrouve, entre autres, les coraux, les anémones de mer et les méduses).
@@ -512,10 +524,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces hydrozoaires ont tous un stade polype dans leur développement. Ils peuvent être solitaires ou coloniaux, et n'ont pas de périsarc ferme. Les méduses ne sont pas coloniales, n'ont pas de statocystes, mais des gonades ou un manubrium, des canaux radiaires et des tentacules rayonnant depuis la marge d'une coupe. Le cnidome inclut normalement des desmonemes (sauf chez les Eudendriidae et Laingiidae)[1].
-Le nom de ce groupe prête à débat : selon les sources, ils sont orthographiés Anthoathecata, Anthoathecatae, ou Anthomedusae[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces hydrozoaires ont tous un stade polype dans leur développement. Ils peuvent être solitaires ou coloniaux, et n'ont pas de périsarc ferme. Les méduses ne sont pas coloniales, n'ont pas de statocystes, mais des gonades ou un manubrium, des canaux radiaires et des tentacules rayonnant depuis la marge d'une coupe. Le cnidome inclut normalement des desmonemes (sauf chez les Eudendriidae et Laingiidae).
+Le nom de ce groupe prête à débat : selon les sources, ils sont orthographiés Anthoathecata, Anthoathecatae, ou Anthomedusae.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (13 juillet 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (13 juillet 2015) :
 sous-ordre Aplanulata
 famille Acaulidae Fraser, 1924
 famille Boeromedusidae Bouillon, 1995
